--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/exam prep.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/exam prep.xlsx
@@ -41,7 +41,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="33">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/exam prep.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/exam prep.xlsx
@@ -41,7 +41,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="33">
+  <numFmts count="40">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
